--- a/licenses/txm-includes.xlsx
+++ b/licenses/txm-includes.xlsx
@@ -79,9 +79,6 @@
     <t>4.2.0</t>
   </si>
   <si>
-    <t>1.8.1</t>
-  </si>
-  <si>
     <t>1.0b3</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>2.7-1</t>
-  </si>
-  <si>
-    <t>2.10.0</t>
   </si>
   <si>
     <t>Apache V2.0</t>
@@ -139,9 +133,6 @@
   </si>
   <si>
     <t>1.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
   </si>
   <si>
     <r>
@@ -446,6 +437,15 @@
   </si>
   <si>
     <t>1.4.01</t>
+  </si>
+  <si>
+    <t>2.11.0</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
   </si>
 </sst>
 </file>
@@ -1011,9 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1032,7 +1030,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="24" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -1050,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -1067,23 +1065,23 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="18">
         <v>39541</v>
@@ -1094,26 +1092,26 @@
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H3" s="18">
-        <v>40305</v>
+        <v>40539</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="18"/>
@@ -1121,13 +1119,13 @@
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>8</v>
@@ -1145,25 +1143,25 @@
       <c r="I4" s="9"/>
       <c r="J4" s="18"/>
       <c r="K4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="9">
         <v>1.7</v>
@@ -1174,47 +1172,47 @@
       <c r="I5" s="9"/>
       <c r="J5" s="18"/>
       <c r="K5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H6" s="18">
-        <v>40469</v>
+        <v>40535</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="18"/>
       <c r="K6" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="15" t="str">
         <f>HYPERLINK("http://commons.apache.org/logging/","http://commons.apache.org/logging/")</f>
@@ -1222,7 +1220,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>14</v>
@@ -1233,26 +1231,26 @@
       <c r="I7" s="9"/>
       <c r="J7" s="18"/>
       <c r="K7" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="15"/>
       <c r="G8" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H8" s="18">
         <v>40483</v>
@@ -1263,23 +1261,23 @@
     </row>
     <row r="9" spans="1:11" ht="91.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="18">
         <v>40371</v>
@@ -1290,23 +1288,23 @@
     </row>
     <row r="10" spans="1:11" ht="36.75" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="18">
         <v>39408</v>
@@ -1317,26 +1315,26 @@
     </row>
     <row r="11" spans="1:11" ht="24.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H11" s="18">
-        <v>40344</v>
+        <v>40512</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="18"/>
@@ -1344,25 +1342,25 @@
     </row>
     <row r="12" spans="1:11" ht="56.25" customHeight="1">
       <c r="A12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="F12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="H12" s="18">
         <v>40158</v>
@@ -1373,20 +1371,20 @@
     </row>
     <row r="13" spans="1:11" ht="79.5" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="9">
         <v>1.4</v>
@@ -1397,7 +1395,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="18"/>
       <c r="K13" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">

--- a/licenses/txm-includes.xlsx
+++ b/licenses/txm-includes.xlsx
@@ -355,6 +355,83 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Ant Contrib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. antcontrib.jar</t>
+    </r>
+  </si>
+  <si>
+    <t>The Logging package is an ultra-thin bridge between different logging implementations. A library that uses the commons-logging API can be used with any logging implementation at runtime. Commons-logging comes with support for a number of popular logging implementations, and writing adapters for others is a reasonably simple task.</t>
+  </si>
+  <si>
+    <t>1.76.1</t>
+  </si>
+  <si>
+    <t>(comes with FOP project - but with version 1.3.1)</t>
+  </si>
+  <si>
+    <t>(comes with FOP project - but with version 1.0.4)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>XML Commons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. xml-apis.jar</t>
+    </r>
+  </si>
+  <si>
+    <t>xml-commons is focussed on common code and guidelines for xml projects. The first focus will be to organize and have common packaging for the various externally-defined standards code relating to XML - things like the DOM, SAX, and JAXP interfaces.</t>
+  </si>
+  <si>
+    <t>http://xml.apache.org/commons/</t>
+  </si>
+  <si>
+    <t>http://archive.apache.org/dist/xml/commons/</t>
+  </si>
+  <si>
+    <t>1.4.01</t>
+  </si>
+  <si>
+    <t>2.11.0</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>Ant</t>
     </r>
     <r>
@@ -366,86 +443,8 @@
       </rPr>
       <t xml:space="preserve">
      1. ant.jar
-     2. ant-launcher.jar
-     3. ant-nodeps.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ant Contrib</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. antcontrib.jar</t>
-    </r>
-  </si>
-  <si>
-    <t>The Logging package is an ultra-thin bridge between different logging implementations. A library that uses the commons-logging API can be used with any logging implementation at runtime. Commons-logging comes with support for a number of popular logging implementations, and writing adapters for others is a reasonably simple task.</t>
-  </si>
-  <si>
-    <t>1.76.1</t>
-  </si>
-  <si>
-    <t>(comes with FOP project - but with version 1.3.1)</t>
-  </si>
-  <si>
-    <t>(comes with FOP project - but with version 1.0.4)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>XML Commons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. xml-apis.jar</t>
-    </r>
-  </si>
-  <si>
-    <t>xml-commons is focussed on common code and guidelines for xml projects. The first focus will be to organize and have common packaging for the various externally-defined standards code relating to XML - things like the DOM, SAX, and JAXP interfaces.</t>
-  </si>
-  <si>
-    <t>http://xml.apache.org/commons/</t>
-  </si>
-  <si>
-    <t>http://archive.apache.org/dist/xml/commons/</t>
-  </si>
-  <si>
-    <t>1.4.01</t>
-  </si>
-  <si>
-    <t>2.11.0</t>
-  </si>
-  <si>
-    <t>1.8.2</t>
-  </si>
-  <si>
-    <t>2.0.1</t>
+     2. ant-launcher.jar</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1011,7 +1010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1065,7 +1066,7 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>33</v>
@@ -1090,9 +1091,9 @@
       <c r="J2" s="18"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="24.75" customHeight="1">
+    <row r="3" spans="1:11" ht="38.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>32</v>
@@ -1108,7 +1109,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="18">
         <v>40539</v>
@@ -1193,7 +1194,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="18">
         <v>40535</v>
@@ -1201,7 +1202,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="18"/>
       <c r="K6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
@@ -1209,7 +1210,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -1231,7 +1232,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="18"/>
       <c r="K7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
@@ -1250,7 +1251,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="15"/>
       <c r="G8" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="18">
         <v>40483</v>
@@ -1331,7 +1332,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="18">
         <v>40512</v>
@@ -1342,25 +1343,25 @@
     </row>
     <row r="12" spans="1:11" ht="56.25" customHeight="1">
       <c r="A12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="18">
         <v>40158</v>

--- a/licenses/txm-includes.xlsx
+++ b/licenses/txm-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -445,6 +445,47 @@
      1. ant.jar
      2. ant-launcher.jar</t>
     </r>
+  </si>
+  <si>
+    <t>GPL V3</t>
+  </si>
+  <si>
+    <t>http://www.gnu.org/licenses/gpl.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRR (Together Read Registry)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. readregistry.exe</t>
+    </r>
+  </si>
+  <si>
+    <t>http://together.at</t>
+  </si>
+  <si>
+    <t>1.0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Together Read Registry(TRR) is NSIS script application used for getting default value of JAVA HOME location from registry.
+</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/leaf?id=0B9ZAe6ftekYJNTc0OWM2NzctNzM3MS00YmNjLTkyMTctZjg0ZWUxZWI2YWQw&amp;;hl=en</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1287,130 +1328,157 @@
       <c r="J9" s="18"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="36.75" customHeight="1">
+    <row r="10" spans="1:11" ht="45" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="F10" s="15" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="18">
-        <v>39408</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="9"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="24.75" customHeight="1">
+    <row r="11" spans="1:11" ht="36.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H11" s="18">
-        <v>40512</v>
+        <v>39408</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="18"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="56.25" customHeight="1">
+    <row r="12" spans="1:11" ht="24.75" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>60</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" s="18">
-        <v>40158</v>
+        <v>40512</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="18"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="79.5" customHeight="1">
+    <row r="13" spans="1:11" ht="56.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="F13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="9">
-        <v>1.4</v>
+      <c r="G13" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="H13" s="18">
-        <v>40366</v>
+        <v>40158</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="79.5" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="H14" s="18">
+        <v>40366</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="10"/>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A2:K20">
@@ -1421,28 +1489,31 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="F2" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D11" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
     <hyperlink ref="D4" r:id="rId7"/>
     <hyperlink ref="D5" r:id="rId8"/>
     <hyperlink ref="F5" r:id="rId9"/>
     <hyperlink ref="D6" r:id="rId10"/>
     <hyperlink ref="F4" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId12"/>
     <hyperlink ref="D9" r:id="rId13"/>
     <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="F10" r:id="rId15"/>
-    <hyperlink ref="F11" r:id="rId16"/>
+    <hyperlink ref="F11" r:id="rId15"/>
+    <hyperlink ref="F12" r:id="rId16"/>
     <hyperlink ref="F9" r:id="rId17"/>
     <hyperlink ref="F6" r:id="rId18"/>
     <hyperlink ref="F7" r:id="rId19"/>
-    <hyperlink ref="F13" r:id="rId20"/>
-    <hyperlink ref="D12" r:id="rId21"/>
-    <hyperlink ref="F12" r:id="rId22"/>
-    <hyperlink ref="E12" r:id="rId23"/>
+    <hyperlink ref="F14" r:id="rId20"/>
+    <hyperlink ref="D13" r:id="rId21"/>
+    <hyperlink ref="F13" r:id="rId22"/>
+    <hyperlink ref="E13" r:id="rId23"/>
+    <hyperlink ref="F10" r:id="rId24"/>
+    <hyperlink ref="D10" r:id="rId25"/>
+    <hyperlink ref="E10" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/licenses/txm-includes.xlsx
+++ b/licenses/txm-includes.xlsx
@@ -312,28 +312,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DocBook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-        1. docbook-xsl </t>
-    </r>
-  </si>
-  <si>
     <t>(comes with FOP project)</t>
   </si>
   <si>
@@ -486,6 +464,29 @@
   </si>
   <si>
     <t>https://docs.google.com/leaf?id=0B9ZAe6ftekYJNTc0OWM2NzctNzM3MS00YmNjLTkyMTctZjg0ZWUxZWI2YWQw&amp;;hl=en</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DocBook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+        1. docbook-xsl 
+        2. docbook-dtd </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1051,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1072,7 +1073,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="24" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -1090,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -1107,7 +1108,7 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>33</v>
@@ -1134,7 +1135,7 @@
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>32</v>
@@ -1150,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="18">
         <v>40539</v>
@@ -1185,7 +1186,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="18"/>
       <c r="K4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
@@ -1214,7 +1215,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="18"/>
       <c r="K5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
@@ -1235,7 +1236,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="18">
         <v>40535</v>
@@ -1243,7 +1244,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="18"/>
       <c r="K6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
@@ -1251,7 +1252,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -1273,18 +1274,18 @@
       <c r="I7" s="9"/>
       <c r="J7" s="18"/>
       <c r="K7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>31</v>
@@ -1292,7 +1293,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="15"/>
       <c r="G8" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="18">
         <v>40483</v>
@@ -1330,25 +1331,25 @@
     </row>
     <row r="10" spans="1:11" ht="45" customHeight="1">
       <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="E10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="G10" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="9"/>
@@ -1400,7 +1401,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="18">
         <v>40512</v>
@@ -1411,25 +1412,25 @@
     </row>
     <row r="13" spans="1:11" ht="56.25" customHeight="1">
       <c r="A13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="18">
         <v>40158</v>
@@ -1464,7 +1465,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="18"/>
       <c r="K14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">

--- a/licenses/txm-includes.xlsx
+++ b/licenses/txm-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -466,6 +466,25 @@
     <t>https://docs.google.com/leaf?id=0B9ZAe6ftekYJNTc0OWM2NzctNzM3MS00YmNjLTkyMTctZjg0ZWUxZWI2YWQw&amp;;hl=en</t>
   </si>
   <si>
+    <t>DocBook is a schema (available in several languages including RELAX NG, W3C XML Schemas, and XML DTDs) maintained by the DocBook Technical Committee of OASIS. It is particularly well suited to books and papers about computer hardware and software (though it is by no means limited to these applications).</t>
+  </si>
+  <si>
+    <t>http://www.docbook.org/</t>
+  </si>
+  <si>
+    <t>http://www.docbook.org/schemas/4x</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Will be upgraded for the next release cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2. docbook-dtd
+</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -484,8 +503,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-        1. docbook-xsl 
-        2. docbook-dtd </t>
+        1. docbook-xsl</t>
     </r>
   </si>
 </sst>
@@ -493,12 +511,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d/mmm/yy;@"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -532,6 +551,11 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -607,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +710,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1050,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1279,7 +1313,7 @@
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>16</v>
@@ -1302,184 +1336,215 @@
       <c r="J8" s="18"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="91.5" customHeight="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:11" s="29" customFormat="1" ht="67.5">
+      <c r="A9" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="H9" s="27">
+        <v>38993</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="27">
+        <v>39484</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="91.5" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="15" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H10" s="18">
         <v>40371</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="45" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="18"/>
       <c r="I10" s="9"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="36.75" customHeight="1">
+    <row r="11" spans="1:11" ht="45" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="F11" s="15" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="18">
-        <v>39408</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="9"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="24.75" customHeight="1">
+    <row r="12" spans="1:11" ht="36.75" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="H12" s="18">
-        <v>40512</v>
+        <v>39408</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="18"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="56.25" customHeight="1">
+    <row r="13" spans="1:11" ht="24.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>59</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="18">
-        <v>40158</v>
+        <v>40512</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="18"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="79.5" customHeight="1">
+    <row r="14" spans="1:11" ht="56.25" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="F14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="9">
-        <v>1.4</v>
+      <c r="G14" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="H14" s="18">
-        <v>40366</v>
+        <v>40158</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="79.5" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="H15" s="18">
+        <v>40366</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="10"/>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A2:K20">
@@ -1490,31 +1555,33 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="F2" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="D12" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
     <hyperlink ref="D4" r:id="rId7"/>
     <hyperlink ref="D5" r:id="rId8"/>
     <hyperlink ref="F5" r:id="rId9"/>
     <hyperlink ref="D6" r:id="rId10"/>
     <hyperlink ref="F4" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12"/>
-    <hyperlink ref="D9" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D10" r:id="rId13"/>
     <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="F11" r:id="rId15"/>
-    <hyperlink ref="F12" r:id="rId16"/>
-    <hyperlink ref="F9" r:id="rId17"/>
+    <hyperlink ref="F12" r:id="rId15"/>
+    <hyperlink ref="F13" r:id="rId16"/>
+    <hyperlink ref="F10" r:id="rId17"/>
     <hyperlink ref="F6" r:id="rId18"/>
     <hyperlink ref="F7" r:id="rId19"/>
-    <hyperlink ref="F14" r:id="rId20"/>
-    <hyperlink ref="D13" r:id="rId21"/>
-    <hyperlink ref="F13" r:id="rId22"/>
-    <hyperlink ref="E13" r:id="rId23"/>
-    <hyperlink ref="F10" r:id="rId24"/>
-    <hyperlink ref="D10" r:id="rId25"/>
-    <hyperlink ref="E10" r:id="rId26"/>
+    <hyperlink ref="F15" r:id="rId20"/>
+    <hyperlink ref="D14" r:id="rId21"/>
+    <hyperlink ref="F14" r:id="rId22"/>
+    <hyperlink ref="E14" r:id="rId23"/>
+    <hyperlink ref="F11" r:id="rId24"/>
+    <hyperlink ref="D11" r:id="rId25"/>
+    <hyperlink ref="E11" r:id="rId26"/>
+    <hyperlink ref="D9" r:id="rId27"/>
+    <hyperlink ref="E9" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/licenses/txm-includes.xlsx
+++ b/licenses/txm-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Apache XML Graphics Commons is a library that consists of several reusable components used by Apache Batik and Apache FOP. Many of these components can easily be used separately outside the domains of SVG and XSL-FO. You will find components such as a PDF library, an RTF library, Graphics2D implementations that let you generate PDF &amp; PostScript files, and much more.</t>
-  </si>
-  <si>
-    <t>http://docbook.sourceforge.net/</t>
   </si>
   <si>
     <t xml:space="preserve">Ant is a Java library and command-line tool. Ant's mission is to drive processes described in build files as targets and extension points dependent upon each other.
@@ -321,10 +318,6 @@
     <t>Used Version</t>
   </si>
   <si>
-    <t>Proprietary
-(MIT like)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -481,30 +474,55 @@
     <t>Will be upgraded for the next release cycle</t>
   </si>
   <si>
-    <t xml:space="preserve">        2. docbook-dtd
+    <t>http://sourceforge.net/projects/docbook/files/</t>
+  </si>
+  <si>
+    <t>http://docbook.sourceforge.net/release/xsl/1.75.2/COPYING</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>DocBook-DTD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    
+   1. docbook-dtd
 </t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DocBook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DocBook-XSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-        1. docbook-xsl</t>
-    </r>
+    1. docbook-xsl</t>
+    </r>
+  </si>
+  <si>
+    <t>Proprietary (MIT like)</t>
   </si>
 </sst>
 </file>
@@ -517,7 +535,7 @@
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -558,6 +576,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -573,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -605,19 +642,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,19 +731,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1087,7 +1120,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1107,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="24" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -1125,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -1142,10 +1175,10 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>28</v>
@@ -1169,23 +1202,23 @@
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="18">
         <v>40539</v>
@@ -1196,7 +1229,7 @@
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>4</v>
@@ -1220,12 +1253,12 @@
       <c r="I4" s="9"/>
       <c r="J4" s="18"/>
       <c r="K4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>2</v>
@@ -1249,12 +1282,12 @@
       <c r="I5" s="9"/>
       <c r="J5" s="18"/>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -1267,10 +1300,10 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="18">
         <v>40535</v>
@@ -1278,15 +1311,15 @@
       <c r="I6" s="9"/>
       <c r="J6" s="18"/>
       <c r="K6" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -1297,7 +1330,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>14</v>
@@ -1308,68 +1341,72 @@
       <c r="I7" s="9"/>
       <c r="J7" s="18"/>
       <c r="K7" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:11" s="31" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A8" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="C8" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="25">
         <v>40483</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" s="29" customFormat="1" ht="67.5">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:11" s="30" customFormat="1" ht="67.5">
+      <c r="A9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="9">
         <v>4.5</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="25">
         <v>38993</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="27">
+      <c r="I9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="25">
         <v>39484</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="91.5" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>7</v>
@@ -1382,10 +1419,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="H10" s="18">
         <v>40371</v>
@@ -1396,25 +1433,25 @@
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1">
       <c r="A11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="9"/>
@@ -1423,10 +1460,10 @@
     </row>
     <row r="12" spans="1:11" ht="36.75" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
@@ -1436,7 +1473,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>25</v>
@@ -1450,10 +1487,10 @@
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
@@ -1463,10 +1500,10 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="18">
         <v>40512</v>
@@ -1477,25 +1514,25 @@
     </row>
     <row r="14" spans="1:11" ht="56.25" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="18">
         <v>40158</v>
@@ -1506,7 +1543,7 @@
     </row>
     <row r="15" spans="1:11" ht="79.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>30</v>
@@ -1519,7 +1556,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="9">
         <v>1.4</v>
@@ -1530,7 +1567,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="18"/>
       <c r="K15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
@@ -1564,24 +1601,26 @@
     <hyperlink ref="F4" r:id="rId11"/>
     <hyperlink ref="D15" r:id="rId12"/>
     <hyperlink ref="D10" r:id="rId13"/>
-    <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="F12" r:id="rId15"/>
-    <hyperlink ref="F13" r:id="rId16"/>
-    <hyperlink ref="F10" r:id="rId17"/>
-    <hyperlink ref="F6" r:id="rId18"/>
-    <hyperlink ref="F7" r:id="rId19"/>
-    <hyperlink ref="F15" r:id="rId20"/>
-    <hyperlink ref="D14" r:id="rId21"/>
-    <hyperlink ref="F14" r:id="rId22"/>
-    <hyperlink ref="E14" r:id="rId23"/>
-    <hyperlink ref="F11" r:id="rId24"/>
-    <hyperlink ref="D11" r:id="rId25"/>
-    <hyperlink ref="E11" r:id="rId26"/>
-    <hyperlink ref="D9" r:id="rId27"/>
-    <hyperlink ref="E9" r:id="rId28"/>
+    <hyperlink ref="F12" r:id="rId14"/>
+    <hyperlink ref="F13" r:id="rId15"/>
+    <hyperlink ref="F10" r:id="rId16"/>
+    <hyperlink ref="F6" r:id="rId17"/>
+    <hyperlink ref="F7" r:id="rId18"/>
+    <hyperlink ref="F15" r:id="rId19"/>
+    <hyperlink ref="D14" r:id="rId20"/>
+    <hyperlink ref="F14" r:id="rId21"/>
+    <hyperlink ref="E14" r:id="rId22"/>
+    <hyperlink ref="F11" r:id="rId23"/>
+    <hyperlink ref="D11" r:id="rId24"/>
+    <hyperlink ref="E11" r:id="rId25"/>
+    <hyperlink ref="D8" r:id="rId26"/>
+    <hyperlink ref="E8" r:id="rId27"/>
+    <hyperlink ref="F8" r:id="rId28"/>
+    <hyperlink ref="D9" r:id="rId29"/>
+    <hyperlink ref="E9" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>